--- a/PCI/Airfield_AC_Curve.xlsx
+++ b/PCI/Airfield_AC_Curve.xlsx
@@ -5,16 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VS_PCI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VS_PCI\PCI\PCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13ABC436-79DF-4DA9-B175-450AD90BE9A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12EE14-02EF-4020-AC36-10153126DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Alligator cracking" sheetId="3" r:id="rId1"/>
-    <sheet name="CDV_AC" sheetId="4" r:id="rId2"/>
+    <sheet name="2-Bleeding" sheetId="5" r:id="rId2"/>
+    <sheet name="3-Block cracking" sheetId="6" r:id="rId3"/>
+    <sheet name="4-Corrugation" sheetId="7" r:id="rId4"/>
+    <sheet name="CDV_AC" sheetId="4" r:id="rId5"/>
+    <sheet name="5-Depression" sheetId="9" r:id="rId6"/>
+    <sheet name="6-Jet blast" sheetId="10" r:id="rId7"/>
+    <sheet name="7-Joint Reflection" sheetId="11" r:id="rId8"/>
+    <sheet name="8-Long. &amp; Trans. Cracking" sheetId="12" r:id="rId9"/>
+    <sheet name="9-Oil Spillage" sheetId="13" r:id="rId10"/>
+    <sheet name="10-Patching" sheetId="14" r:id="rId11"/>
+    <sheet name="11-Polished Aggregate" sheetId="15" r:id="rId12"/>
+    <sheet name="12-Raveling" sheetId="16" r:id="rId13"/>
+    <sheet name="13-Rutting" sheetId="17" r:id="rId14"/>
+    <sheet name="14-Shoving from PCC" sheetId="18" r:id="rId15"/>
+    <sheet name="15-Slippage Cracking" sheetId="19" r:id="rId16"/>
+    <sheet name="16-Swelling" sheetId="20" r:id="rId17"/>
+    <sheet name="17-Weathering" sheetId="21" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="15">
   <si>
     <t>Density</t>
   </si>
@@ -168,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -189,6 +205,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -473,7 +498,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,12 +1058,5064 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2349783-1006-4200-9A90-241EF2A7A8B8}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2.14</v>
+      </c>
+      <c r="C2" s="10">
+        <v>2.14</v>
+      </c>
+      <c r="D2" s="10">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2.3199999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3.03</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.03</v>
+      </c>
+      <c r="D5" s="10">
+        <v>3.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.21</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3.21</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3.39</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3.74</v>
+      </c>
+      <c r="C8" s="10">
+        <v>3.74</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.92</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3.92</v>
+      </c>
+      <c r="D9" s="10">
+        <v>3.92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C10" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>4.28</v>
+      </c>
+      <c r="C11" s="10">
+        <v>4.28</v>
+      </c>
+      <c r="D11" s="10">
+        <v>4.28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>6.42</v>
+      </c>
+      <c r="C12" s="10">
+        <v>6.42</v>
+      </c>
+      <c r="D12" s="10">
+        <v>6.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.84</v>
+      </c>
+      <c r="C13" s="10">
+        <v>7.84</v>
+      </c>
+      <c r="D13" s="10">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9.27</v>
+      </c>
+      <c r="C14" s="10">
+        <v>9.27</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10.52</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10.52</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>11.76</v>
+      </c>
+      <c r="C16" s="10">
+        <v>11.76</v>
+      </c>
+      <c r="D16" s="10">
+        <v>11.76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>13.19</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13.19</v>
+      </c>
+      <c r="D17" s="10">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>14.26</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14.26</v>
+      </c>
+      <c r="D18" s="10">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>15.51</v>
+      </c>
+      <c r="C19" s="10">
+        <v>15.51</v>
+      </c>
+      <c r="D19" s="10">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>17.11</v>
+      </c>
+      <c r="C20" s="10">
+        <v>17.11</v>
+      </c>
+      <c r="D20" s="10">
+        <v>17.11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24.06</v>
+      </c>
+      <c r="C21" s="10">
+        <v>24.06</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="C22" s="10">
+        <v>26.2</v>
+      </c>
+      <c r="D22" s="10">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.45</v>
+      </c>
+      <c r="C23" s="10">
+        <v>27.45</v>
+      </c>
+      <c r="D23" s="10">
+        <v>27.45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>27.99</v>
+      </c>
+      <c r="C24" s="10">
+        <v>27.99</v>
+      </c>
+      <c r="D24" s="10">
+        <v>27.99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>28.34</v>
+      </c>
+      <c r="C25" s="10">
+        <v>28.34</v>
+      </c>
+      <c r="D25" s="10">
+        <v>28.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="C26" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="D26" s="10">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="C27" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="D27" s="10">
+        <v>28.52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>28.7</v>
+      </c>
+      <c r="C28" s="10">
+        <v>28.7</v>
+      </c>
+      <c r="D28" s="10">
+        <v>28.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="C29" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="D29" s="10">
+        <v>28.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E9C0A3C-6049-4915-9C09-3794E2B3366A}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.42</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6.39</v>
+      </c>
+      <c r="D2" s="10">
+        <v>15.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.95</v>
+      </c>
+      <c r="C3" s="10">
+        <v>6.75</v>
+      </c>
+      <c r="D3" s="10">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.13</v>
+      </c>
+      <c r="C4" s="10">
+        <v>7.46</v>
+      </c>
+      <c r="D4" s="10">
+        <v>16.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7.64</v>
+      </c>
+      <c r="D5" s="10">
+        <v>17.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.66</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8.17</v>
+      </c>
+      <c r="D6" s="10">
+        <v>17.579999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.02</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8.35</v>
+      </c>
+      <c r="D7" s="10">
+        <v>17.940000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="C8" s="10">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D8" s="10">
+        <v>18.12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.37</v>
+      </c>
+      <c r="C9" s="10">
+        <v>9.24</v>
+      </c>
+      <c r="D9" s="10">
+        <v>18.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3.55</v>
+      </c>
+      <c r="C10" s="10">
+        <v>9.59</v>
+      </c>
+      <c r="D10" s="10">
+        <v>18.829999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.91</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="D11" s="10">
+        <v>19.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.51</v>
+      </c>
+      <c r="C12" s="10">
+        <v>12.79</v>
+      </c>
+      <c r="D12" s="10">
+        <v>23.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>26.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="C14" s="10">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="D14" s="10">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="C15" s="10">
+        <v>19.72</v>
+      </c>
+      <c r="D15" s="10">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>11.01</v>
+      </c>
+      <c r="C16" s="10">
+        <v>21.85</v>
+      </c>
+      <c r="D16" s="10">
+        <v>34.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12.08</v>
+      </c>
+      <c r="C17" s="10">
+        <v>23.45</v>
+      </c>
+      <c r="D17" s="10">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13.32</v>
+      </c>
+      <c r="C18" s="10">
+        <v>25.4</v>
+      </c>
+      <c r="D18" s="10">
+        <v>39.43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>14.03</v>
+      </c>
+      <c r="C19" s="10">
+        <v>26.82</v>
+      </c>
+      <c r="D19" s="10">
+        <v>41.39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="C20" s="10">
+        <v>27.89</v>
+      </c>
+      <c r="D20" s="10">
+        <v>42.63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>20.96</v>
+      </c>
+      <c r="C21" s="10">
+        <v>38.369999999999997</v>
+      </c>
+      <c r="D21" s="10">
+        <v>56.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>24.51</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45.47</v>
+      </c>
+      <c r="D22" s="10">
+        <v>65.72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.71</v>
+      </c>
+      <c r="C23" s="10">
+        <v>50.62</v>
+      </c>
+      <c r="D23" s="10">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>30.02</v>
+      </c>
+      <c r="C24" s="10">
+        <v>55.24</v>
+      </c>
+      <c r="D24" s="10">
+        <v>80.11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>32.15</v>
+      </c>
+      <c r="C25" s="10">
+        <v>59.15</v>
+      </c>
+      <c r="D25" s="10">
+        <v>85.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>34.1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>62.34</v>
+      </c>
+      <c r="D26" s="10">
+        <v>90.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="C27" s="10">
+        <v>65.19</v>
+      </c>
+      <c r="D27" s="10">
+        <v>94.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>37.659999999999997</v>
+      </c>
+      <c r="C28" s="10">
+        <v>67.67</v>
+      </c>
+      <c r="D28" s="10">
+        <v>97.69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>38.72</v>
+      </c>
+      <c r="C29" s="10">
+        <v>69.63</v>
+      </c>
+      <c r="D29" s="10">
+        <v>99.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77778156-04FD-4BD0-91AB-2CAFD2FE8B74}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.47</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.47</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.65</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.39</v>
+      </c>
+      <c r="D8" s="10">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="D9" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="D10" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D11" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="C12" s="10">
+        <v>5.5</v>
+      </c>
+      <c r="D12" s="10">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.52</v>
+      </c>
+      <c r="C13" s="10">
+        <v>7.52</v>
+      </c>
+      <c r="D13" s="10">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9.36</v>
+      </c>
+      <c r="C14" s="10">
+        <v>9.36</v>
+      </c>
+      <c r="D14" s="10">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10.83</v>
+      </c>
+      <c r="C15" s="10">
+        <v>10.83</v>
+      </c>
+      <c r="D15" s="10">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="C16" s="10">
+        <v>12.29</v>
+      </c>
+      <c r="D16" s="10">
+        <v>12.29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>13.58</v>
+      </c>
+      <c r="C17" s="10">
+        <v>13.58</v>
+      </c>
+      <c r="D17" s="10">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>14.86</v>
+      </c>
+      <c r="C18" s="10">
+        <v>14.86</v>
+      </c>
+      <c r="D18" s="10">
+        <v>14.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="C19" s="10">
+        <v>16.149999999999999</v>
+      </c>
+      <c r="D19" s="10">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>17.25</v>
+      </c>
+      <c r="C20" s="10">
+        <v>17.25</v>
+      </c>
+      <c r="D20" s="10">
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24.77</v>
+      </c>
+      <c r="C21" s="10">
+        <v>24.77</v>
+      </c>
+      <c r="D21" s="10">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>30.64</v>
+      </c>
+      <c r="C22" s="10">
+        <v>30.64</v>
+      </c>
+      <c r="D22" s="10">
+        <v>30.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>34.68</v>
+      </c>
+      <c r="C23" s="10">
+        <v>34.68</v>
+      </c>
+      <c r="D23" s="10">
+        <v>34.68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="C24" s="10">
+        <v>37.979999999999997</v>
+      </c>
+      <c r="D24" s="10">
+        <v>37.979999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>40.92</v>
+      </c>
+      <c r="C25" s="10">
+        <v>40.92</v>
+      </c>
+      <c r="D25" s="10">
+        <v>40.92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>43.49</v>
+      </c>
+      <c r="C26" s="10">
+        <v>43.49</v>
+      </c>
+      <c r="D26" s="10">
+        <v>43.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>46.24</v>
+      </c>
+      <c r="C27" s="10">
+        <v>46.24</v>
+      </c>
+      <c r="D27" s="10">
+        <v>46.24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>47.89</v>
+      </c>
+      <c r="C28" s="10">
+        <v>47.89</v>
+      </c>
+      <c r="D28" s="10">
+        <v>47.89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>50.09</v>
+      </c>
+      <c r="C29" s="10">
+        <v>50.09</v>
+      </c>
+      <c r="D29" s="10">
+        <v>50.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D678EEA-45F1-4BE6-9CB6-F9979EFA816B}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.63</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.7</v>
+      </c>
+      <c r="D2" s="10">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.81</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="D3" s="10">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.99</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5.61</v>
+      </c>
+      <c r="D4" s="10">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="C5" s="10">
+        <v>5.97</v>
+      </c>
+      <c r="D5" s="10">
+        <v>10.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.35</v>
+      </c>
+      <c r="C6" s="10">
+        <v>6.87</v>
+      </c>
+      <c r="D6" s="10">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C7" s="10">
+        <v>7.41</v>
+      </c>
+      <c r="D7" s="10">
+        <v>12.84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="C8" s="10">
+        <v>7.78</v>
+      </c>
+      <c r="D8" s="10">
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.07</v>
+      </c>
+      <c r="C9" s="10">
+        <v>8.14</v>
+      </c>
+      <c r="D9" s="10">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3.07</v>
+      </c>
+      <c r="C10" s="10">
+        <v>8.68</v>
+      </c>
+      <c r="D10" s="10">
+        <v>15.55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.44</v>
+      </c>
+      <c r="C11" s="10">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D11" s="10">
+        <v>16.82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11.21</v>
+      </c>
+      <c r="D12" s="10">
+        <v>26.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>5.42</v>
+      </c>
+      <c r="C13" s="10">
+        <v>13.38</v>
+      </c>
+      <c r="D13" s="10">
+        <v>33.630000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>6.51</v>
+      </c>
+      <c r="C14" s="10">
+        <v>14.83</v>
+      </c>
+      <c r="D14" s="10">
+        <v>38.700000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>7.41</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16.09</v>
+      </c>
+      <c r="D15" s="10">
+        <v>42.68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>7.96</v>
+      </c>
+      <c r="C16" s="10">
+        <v>17</v>
+      </c>
+      <c r="D16" s="10">
+        <v>45.57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>8.68</v>
+      </c>
+      <c r="C17" s="10">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="D17" s="10">
+        <v>47.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>9.4</v>
+      </c>
+      <c r="C18" s="10">
+        <v>18.989999999999998</v>
+      </c>
+      <c r="D18" s="10">
+        <v>50.09</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C19" s="10">
+        <v>19.89</v>
+      </c>
+      <c r="D19" s="10">
+        <v>51.36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>10.67</v>
+      </c>
+      <c r="C20" s="10">
+        <v>20.98</v>
+      </c>
+      <c r="D20" s="10">
+        <v>52.26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>14.65</v>
+      </c>
+      <c r="C21" s="10">
+        <v>28.57</v>
+      </c>
+      <c r="D21" s="10">
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>17.36</v>
+      </c>
+      <c r="C22" s="10">
+        <v>35.26</v>
+      </c>
+      <c r="D22" s="10">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="C23" s="10">
+        <v>39.78</v>
+      </c>
+      <c r="D23" s="10">
+        <v>66.180000000000007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>20.98</v>
+      </c>
+      <c r="C24" s="10">
+        <v>43.94</v>
+      </c>
+      <c r="D24" s="10">
+        <v>67.63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>22.24</v>
+      </c>
+      <c r="C25" s="10">
+        <v>47.56</v>
+      </c>
+      <c r="D25" s="10">
+        <v>68.540000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>23.69</v>
+      </c>
+      <c r="C26" s="10">
+        <v>50.45</v>
+      </c>
+      <c r="D26" s="10">
+        <v>69.260000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>25.14</v>
+      </c>
+      <c r="C27" s="10">
+        <v>53.16</v>
+      </c>
+      <c r="D27" s="10">
+        <v>69.62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="C28" s="10">
+        <v>55.33</v>
+      </c>
+      <c r="D28" s="10">
+        <v>69.98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>27.49</v>
+      </c>
+      <c r="C29" s="10">
+        <v>56.42</v>
+      </c>
+      <c r="D29" s="10">
+        <v>69.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2D7E5B-CA69-44B7-9225-F0DDCFD202D1}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>8.27</v>
+      </c>
+      <c r="C2" s="10">
+        <v>12.87</v>
+      </c>
+      <c r="D2" s="10">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>9.93</v>
+      </c>
+      <c r="C3" s="10">
+        <v>15.81</v>
+      </c>
+      <c r="D3" s="10">
+        <v>23.53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>11.03</v>
+      </c>
+      <c r="C4" s="10">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D4" s="10">
+        <v>25.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>11.95</v>
+      </c>
+      <c r="C5" s="10">
+        <v>19.12</v>
+      </c>
+      <c r="D5" s="10">
+        <v>27.57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>13.24</v>
+      </c>
+      <c r="C6" s="10">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D6" s="10">
+        <v>29.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>13.79</v>
+      </c>
+      <c r="C7" s="10">
+        <v>21.32</v>
+      </c>
+      <c r="D7" s="10">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>14.34</v>
+      </c>
+      <c r="C8" s="10">
+        <v>22.24</v>
+      </c>
+      <c r="D8" s="10">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>14.89</v>
+      </c>
+      <c r="C9" s="10">
+        <v>22.98</v>
+      </c>
+      <c r="D9" s="10">
+        <v>32.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>15.44</v>
+      </c>
+      <c r="C10" s="10">
+        <v>23.71</v>
+      </c>
+      <c r="D10" s="10">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>15.81</v>
+      </c>
+      <c r="C11" s="10">
+        <v>24.26</v>
+      </c>
+      <c r="D11" s="10">
+        <v>34.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>18.75</v>
+      </c>
+      <c r="C12" s="10">
+        <v>29.41</v>
+      </c>
+      <c r="D12" s="10">
+        <v>40.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>20.59</v>
+      </c>
+      <c r="C13" s="10">
+        <v>32.72</v>
+      </c>
+      <c r="D13" s="10">
+        <v>45.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>22.43</v>
+      </c>
+      <c r="C14" s="10">
+        <v>35.11</v>
+      </c>
+      <c r="D14" s="10">
+        <v>48.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>23.9</v>
+      </c>
+      <c r="C15" s="10">
+        <v>37.130000000000003</v>
+      </c>
+      <c r="D15" s="10">
+        <v>51.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>25.37</v>
+      </c>
+      <c r="C16" s="10">
+        <v>38.6</v>
+      </c>
+      <c r="D16" s="10">
+        <v>53.86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>26.47</v>
+      </c>
+      <c r="C17" s="10">
+        <v>40.44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>27.57</v>
+      </c>
+      <c r="C18" s="10">
+        <v>41.73</v>
+      </c>
+      <c r="D18" s="10">
+        <v>58.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>28.31</v>
+      </c>
+      <c r="C19" s="10">
+        <v>43.01</v>
+      </c>
+      <c r="D19" s="10">
+        <v>60.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>29.04</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44.12</v>
+      </c>
+      <c r="D20" s="10">
+        <v>61.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>35.11</v>
+      </c>
+      <c r="C21" s="10">
+        <v>52.21</v>
+      </c>
+      <c r="D21" s="10">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>38.79</v>
+      </c>
+      <c r="C22" s="10">
+        <v>57.17</v>
+      </c>
+      <c r="D22" s="10">
+        <v>82.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>41.73</v>
+      </c>
+      <c r="C23" s="10">
+        <v>61.58</v>
+      </c>
+      <c r="D23" s="10">
+        <v>88.79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44.3</v>
+      </c>
+      <c r="C24" s="10">
+        <v>64.89</v>
+      </c>
+      <c r="D24" s="10">
+        <v>94.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>46.69</v>
+      </c>
+      <c r="C25" s="10">
+        <v>68.38</v>
+      </c>
+      <c r="D25" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>48.71</v>
+      </c>
+      <c r="C26" s="10">
+        <v>71.14</v>
+      </c>
+      <c r="D26" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>50.74</v>
+      </c>
+      <c r="C27" s="10">
+        <v>74.08</v>
+      </c>
+      <c r="D27" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>52.39</v>
+      </c>
+      <c r="C28" s="10">
+        <v>76.84</v>
+      </c>
+      <c r="D28" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>53.49</v>
+      </c>
+      <c r="C29" s="10">
+        <v>79.23</v>
+      </c>
+      <c r="D29" s="10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0065DFF3-632A-40C8-8D43-501C41650283}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2.17</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.96</v>
+      </c>
+      <c r="D2" s="10">
+        <v>10.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.89</v>
+      </c>
+      <c r="C3" s="10">
+        <v>7.4</v>
+      </c>
+      <c r="D3" s="10">
+        <v>13.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>3.43</v>
+      </c>
+      <c r="C4" s="10">
+        <v>8.66</v>
+      </c>
+      <c r="D4" s="10">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="C5" s="10">
+        <v>10.11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>17.690000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>4.51</v>
+      </c>
+      <c r="C6" s="10">
+        <v>11.19</v>
+      </c>
+      <c r="D6" s="10">
+        <v>19.309999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>5.05</v>
+      </c>
+      <c r="C7" s="10">
+        <v>12.09</v>
+      </c>
+      <c r="D7" s="10">
+        <v>20.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>5.6</v>
+      </c>
+      <c r="C8" s="10">
+        <v>12.82</v>
+      </c>
+      <c r="D8" s="10">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5.96</v>
+      </c>
+      <c r="C9" s="10">
+        <v>13.72</v>
+      </c>
+      <c r="D9" s="10">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>6.32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14.26</v>
+      </c>
+      <c r="D10" s="10">
+        <v>23.83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6.68</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14.98</v>
+      </c>
+      <c r="D11" s="10">
+        <v>25.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>9.93</v>
+      </c>
+      <c r="C12" s="10">
+        <v>20.22</v>
+      </c>
+      <c r="D12" s="10">
+        <v>31.59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11.37</v>
+      </c>
+      <c r="C13" s="10">
+        <v>22.92</v>
+      </c>
+      <c r="D13" s="10">
+        <v>35.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13</v>
+      </c>
+      <c r="C14" s="10">
+        <v>25.27</v>
+      </c>
+      <c r="D14" s="10">
+        <v>38.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>14.08</v>
+      </c>
+      <c r="C15" s="10">
+        <v>27.08</v>
+      </c>
+      <c r="D15" s="10">
+        <v>41.34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>15.16</v>
+      </c>
+      <c r="C16" s="10">
+        <v>28.52</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>16.25</v>
+      </c>
+      <c r="C17" s="10">
+        <v>30.32</v>
+      </c>
+      <c r="D17" s="10">
+        <v>45.49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>31.59</v>
+      </c>
+      <c r="D18" s="10">
+        <v>47.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>18.05</v>
+      </c>
+      <c r="C19" s="10">
+        <v>32.67</v>
+      </c>
+      <c r="D19" s="10">
+        <v>48.74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>18.77</v>
+      </c>
+      <c r="C20" s="10">
+        <v>33.94</v>
+      </c>
+      <c r="D20" s="10">
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24.01</v>
+      </c>
+      <c r="C21" s="10">
+        <v>40.79</v>
+      </c>
+      <c r="D21" s="10">
+        <v>59.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>27.98</v>
+      </c>
+      <c r="C22" s="10">
+        <v>45.67</v>
+      </c>
+      <c r="D22" s="10">
+        <v>66.790000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>30.14</v>
+      </c>
+      <c r="C23" s="10">
+        <v>49.28</v>
+      </c>
+      <c r="D23" s="10">
+        <v>71.48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>32.31</v>
+      </c>
+      <c r="C24" s="10">
+        <v>52.53</v>
+      </c>
+      <c r="D24" s="10">
+        <v>75.45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>33.94</v>
+      </c>
+      <c r="C25" s="10">
+        <v>55.42</v>
+      </c>
+      <c r="D25" s="10">
+        <v>78.16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>35.56</v>
+      </c>
+      <c r="C26" s="10">
+        <v>57.58</v>
+      </c>
+      <c r="D26" s="10">
+        <v>81.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>37</v>
+      </c>
+      <c r="C27" s="10">
+        <v>60.11</v>
+      </c>
+      <c r="D27" s="10">
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>38.090000000000003</v>
+      </c>
+      <c r="C28" s="10">
+        <v>61.91</v>
+      </c>
+      <c r="D28" s="10">
+        <v>86.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>38.81</v>
+      </c>
+      <c r="C29" s="10">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="D29" s="10">
+        <v>88.09</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEB610-C2C1-43F1-A6A9-297F25BB3990}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="D2" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>5.19</v>
+      </c>
+      <c r="C3" s="10">
+        <v>5.19</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>6.31</v>
+      </c>
+      <c r="C4" s="10">
+        <v>6.31</v>
+      </c>
+      <c r="D4" s="10">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>7.24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7.24</v>
+      </c>
+      <c r="D5" s="10">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>7.98</v>
+      </c>
+      <c r="C6" s="10">
+        <v>7.98</v>
+      </c>
+      <c r="D6" s="10">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="D7" s="10">
+        <v>8.7200000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D8" s="10">
+        <v>9.4600000000000009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>10.39</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10.39</v>
+      </c>
+      <c r="D9" s="10">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>11.13</v>
+      </c>
+      <c r="C10" s="10">
+        <v>11.13</v>
+      </c>
+      <c r="D10" s="10">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>12.06</v>
+      </c>
+      <c r="C11" s="10">
+        <v>12.06</v>
+      </c>
+      <c r="D11" s="10">
+        <v>12.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="C12" s="10">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="D12" s="10">
+        <v>19.850000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>26.35</v>
+      </c>
+      <c r="C13" s="10">
+        <v>26.35</v>
+      </c>
+      <c r="D13" s="10">
+        <v>26.35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>31.35</v>
+      </c>
+      <c r="C14" s="10">
+        <v>31.35</v>
+      </c>
+      <c r="D14" s="10">
+        <v>31.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="C15" s="10">
+        <v>35.619999999999997</v>
+      </c>
+      <c r="D15" s="10">
+        <v>35.619999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="C16" s="10">
+        <v>39.520000000000003</v>
+      </c>
+      <c r="D16" s="10">
+        <v>39.520000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>42.86</v>
+      </c>
+      <c r="C17" s="10">
+        <v>42.86</v>
+      </c>
+      <c r="D17" s="10">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>46.38</v>
+      </c>
+      <c r="C18" s="10">
+        <v>46.38</v>
+      </c>
+      <c r="D18" s="10">
+        <v>46.38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>49.17</v>
+      </c>
+      <c r="C19" s="10">
+        <v>49.17</v>
+      </c>
+      <c r="D19" s="10">
+        <v>49.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>51.58</v>
+      </c>
+      <c r="C20" s="10">
+        <v>51.58</v>
+      </c>
+      <c r="D20" s="10">
+        <v>51.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="C21" s="10">
+        <v>65.680000000000007</v>
+      </c>
+      <c r="D21" s="10">
+        <v>65.680000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>70.87</v>
+      </c>
+      <c r="C22" s="10">
+        <v>70.87</v>
+      </c>
+      <c r="D22" s="10">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>73.84</v>
+      </c>
+      <c r="C23" s="10">
+        <v>73.84</v>
+      </c>
+      <c r="D23" s="10">
+        <v>73.84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>75.7</v>
+      </c>
+      <c r="C24" s="10">
+        <v>75.7</v>
+      </c>
+      <c r="D24" s="10">
+        <v>75.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="C25" s="10">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="D25" s="10">
+        <v>76.989999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="C26" s="10">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="D26" s="10">
+        <v>78.290000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="C27" s="10">
+        <v>79.040000000000006</v>
+      </c>
+      <c r="D27" s="10">
+        <v>79.040000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>79.41</v>
+      </c>
+      <c r="C28" s="10">
+        <v>79.41</v>
+      </c>
+      <c r="D28" s="10">
+        <v>79.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="C29" s="10">
+        <v>80.150000000000006</v>
+      </c>
+      <c r="D29" s="10">
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CE120-9832-4917-91CF-544B85AD4B41}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1.43</v>
+      </c>
+      <c r="C2" s="10">
+        <v>10.54</v>
+      </c>
+      <c r="D2" s="10">
+        <v>28.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.61</v>
+      </c>
+      <c r="C3" s="10">
+        <v>11.43</v>
+      </c>
+      <c r="D3" s="10">
+        <v>29.29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.79</v>
+      </c>
+      <c r="C4" s="10">
+        <v>11.96</v>
+      </c>
+      <c r="D4" s="10">
+        <v>30.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.14</v>
+      </c>
+      <c r="C5" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="D5" s="10">
+        <v>30.89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C6" s="10">
+        <v>12.85</v>
+      </c>
+      <c r="D6" s="10">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="C7" s="10">
+        <v>13.21</v>
+      </c>
+      <c r="D7" s="10">
+        <v>31.96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2.86</v>
+      </c>
+      <c r="C8" s="10">
+        <v>13.39</v>
+      </c>
+      <c r="D8" s="10">
+        <v>32.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>3.21</v>
+      </c>
+      <c r="C9" s="10">
+        <v>13.93</v>
+      </c>
+      <c r="D9" s="10">
+        <v>32.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>3.57</v>
+      </c>
+      <c r="C10" s="10">
+        <v>14.29</v>
+      </c>
+      <c r="D10" s="10">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="C11" s="10">
+        <v>14.46</v>
+      </c>
+      <c r="D11" s="10">
+        <v>33.57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.89</v>
+      </c>
+      <c r="C12" s="10">
+        <v>16.79</v>
+      </c>
+      <c r="D12" s="10">
+        <v>38.04</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.5</v>
+      </c>
+      <c r="C13" s="10">
+        <v>20.54</v>
+      </c>
+      <c r="D13" s="10">
+        <v>41.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="C14" s="10">
+        <v>23.21</v>
+      </c>
+      <c r="D14" s="10">
+        <v>44.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>11.07</v>
+      </c>
+      <c r="C15" s="10">
+        <v>25.54</v>
+      </c>
+      <c r="D15" s="10">
+        <v>47.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.5</v>
+      </c>
+      <c r="C16" s="10">
+        <v>27.32</v>
+      </c>
+      <c r="D16" s="10">
+        <v>49.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>13.93</v>
+      </c>
+      <c r="C17" s="10">
+        <v>29.29</v>
+      </c>
+      <c r="D17" s="10">
+        <v>51.61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>15</v>
+      </c>
+      <c r="C18" s="10">
+        <v>30.89</v>
+      </c>
+      <c r="D18" s="10">
+        <v>53.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>16.07</v>
+      </c>
+      <c r="C19" s="10">
+        <v>32.32</v>
+      </c>
+      <c r="D19" s="10">
+        <v>55.18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>16.96</v>
+      </c>
+      <c r="C20" s="10">
+        <v>33.93</v>
+      </c>
+      <c r="D20" s="10">
+        <v>56.61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>24.11</v>
+      </c>
+      <c r="C21" s="10">
+        <v>44.29</v>
+      </c>
+      <c r="D21" s="10">
+        <v>68.569999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>29.46</v>
+      </c>
+      <c r="C22" s="10">
+        <v>51.79</v>
+      </c>
+      <c r="D22" s="10">
+        <v>77.14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>33.04</v>
+      </c>
+      <c r="C23" s="10">
+        <v>56.96</v>
+      </c>
+      <c r="D23" s="10">
+        <v>83.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>36.43</v>
+      </c>
+      <c r="C24" s="10">
+        <v>61.43</v>
+      </c>
+      <c r="D24" s="10">
+        <v>88.21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>38.93</v>
+      </c>
+      <c r="C25" s="10">
+        <v>65</v>
+      </c>
+      <c r="D25" s="10">
+        <v>92.68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>41.43</v>
+      </c>
+      <c r="C26" s="10">
+        <v>67.86</v>
+      </c>
+      <c r="D26" s="10">
+        <v>96.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>43.39</v>
+      </c>
+      <c r="C27" s="10">
+        <v>70.709999999999994</v>
+      </c>
+      <c r="D27" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>45.18</v>
+      </c>
+      <c r="C28" s="10">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="D28" s="10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>46.61</v>
+      </c>
+      <c r="C29" s="10">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="D29" s="10">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08930E69-A74F-4814-A7FF-2E6532DAB3B7}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1.64</v>
+      </c>
+      <c r="D2" s="10">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.64</v>
+      </c>
+      <c r="D3" s="10">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D6" s="10">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D7" s="10">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="D8" s="10">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D9" s="10">
+        <v>8.2100000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D10" s="10">
+        <v>8.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="D11" s="10">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>0.91</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.92</v>
+      </c>
+      <c r="D13" s="10">
+        <v>13.87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="C14" s="10">
+        <v>3.47</v>
+      </c>
+      <c r="D14" s="10">
+        <v>15.51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="C15" s="10">
+        <v>3.83</v>
+      </c>
+      <c r="D15" s="10">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="C16" s="10">
+        <v>4.38</v>
+      </c>
+      <c r="D16" s="10">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>1.64</v>
+      </c>
+      <c r="C17" s="10">
+        <v>4.74</v>
+      </c>
+      <c r="D17" s="10">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>1.82</v>
+      </c>
+      <c r="C18" s="10">
+        <v>5.29</v>
+      </c>
+      <c r="D18" s="10">
+        <v>20.260000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5.66</v>
+      </c>
+      <c r="D19" s="10">
+        <v>21.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>2.19</v>
+      </c>
+      <c r="C20" s="10">
+        <v>6.02</v>
+      </c>
+      <c r="D20" s="10">
+        <v>22.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>3.28</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9.49</v>
+      </c>
+      <c r="D21" s="10">
+        <v>29.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>4.01</v>
+      </c>
+      <c r="C22" s="10">
+        <v>12.41</v>
+      </c>
+      <c r="D22" s="10">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C23" s="10">
+        <v>14.42</v>
+      </c>
+      <c r="D23" s="10">
+        <v>39.049999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>4.74</v>
+      </c>
+      <c r="C24" s="10">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="D24" s="10">
+        <v>43.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="C25" s="10">
+        <v>17.52</v>
+      </c>
+      <c r="D25" s="10">
+        <v>46.35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>5.29</v>
+      </c>
+      <c r="C26" s="10">
+        <v>18.25</v>
+      </c>
+      <c r="D26" s="10">
+        <v>49.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>5.47</v>
+      </c>
+      <c r="C27" s="10">
+        <v>19.16</v>
+      </c>
+      <c r="D27" s="10">
+        <v>52.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>5.47</v>
+      </c>
+      <c r="C28" s="10">
+        <v>19.89</v>
+      </c>
+      <c r="D28" s="10">
+        <v>54.74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>6.02</v>
+      </c>
+      <c r="C29" s="10">
+        <v>20.99</v>
+      </c>
+      <c r="D29" s="10">
+        <v>57.12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB669D6-13CE-48AF-9671-EDF3021688CA}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="D4" s="10">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.75</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="C6" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4.04</v>
+      </c>
+      <c r="C7" s="10">
+        <v>4.04</v>
+      </c>
+      <c r="D7" s="10">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4.59</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>5.14</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5.14</v>
+      </c>
+      <c r="D9" s="10">
+        <v>5.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.69</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>6.24</v>
+      </c>
+      <c r="C11" s="10">
+        <v>6.24</v>
+      </c>
+      <c r="D11" s="10">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>11.56</v>
+      </c>
+      <c r="C12" s="10">
+        <v>11.56</v>
+      </c>
+      <c r="D12" s="10">
+        <v>11.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>15.6</v>
+      </c>
+      <c r="C13" s="10">
+        <v>15.6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>20.37</v>
+      </c>
+      <c r="C14" s="10">
+        <v>20.37</v>
+      </c>
+      <c r="D14" s="10">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>25.14</v>
+      </c>
+      <c r="C15" s="10">
+        <v>25.14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>29.17</v>
+      </c>
+      <c r="C16" s="10">
+        <v>29.17</v>
+      </c>
+      <c r="D16" s="10">
+        <v>29.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="C17" s="10">
+        <v>32.479999999999997</v>
+      </c>
+      <c r="D17" s="10">
+        <v>32.479999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>35.78</v>
+      </c>
+      <c r="C18" s="10">
+        <v>35.78</v>
+      </c>
+      <c r="D18" s="10">
+        <v>35.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>38.17</v>
+      </c>
+      <c r="C19" s="10">
+        <v>38.17</v>
+      </c>
+      <c r="D19" s="10">
+        <v>38.17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="C20" s="10">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="D20" s="10">
+        <v>40.369999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>51.01</v>
+      </c>
+      <c r="C21" s="10">
+        <v>51.01</v>
+      </c>
+      <c r="D21" s="10">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>56.51</v>
+      </c>
+      <c r="C22" s="10">
+        <v>56.51</v>
+      </c>
+      <c r="D22" s="10">
+        <v>56.51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>59.63</v>
+      </c>
+      <c r="C23" s="10">
+        <v>59.63</v>
+      </c>
+      <c r="D23" s="10">
+        <v>59.63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>61.65</v>
+      </c>
+      <c r="C24" s="10">
+        <v>61.65</v>
+      </c>
+      <c r="D24" s="10">
+        <v>61.65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>63.49</v>
+      </c>
+      <c r="C25" s="10">
+        <v>63.49</v>
+      </c>
+      <c r="D25" s="10">
+        <v>63.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>64.77</v>
+      </c>
+      <c r="C26" s="10">
+        <v>64.77</v>
+      </c>
+      <c r="D26" s="10">
+        <v>64.77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>65.87</v>
+      </c>
+      <c r="C27" s="10">
+        <v>65.87</v>
+      </c>
+      <c r="D27" s="10">
+        <v>65.87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>66.61</v>
+      </c>
+      <c r="C28" s="10">
+        <v>66.61</v>
+      </c>
+      <c r="D28" s="10">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>67.34</v>
+      </c>
+      <c r="C29" s="10">
+        <v>67.34</v>
+      </c>
+      <c r="D29" s="10">
+        <v>67.34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D451432-809F-4E8B-A090-427CA6D2220A}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="C2">
+        <v>7.88</v>
+      </c>
+      <c r="D2">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>5.24</v>
+      </c>
+      <c r="C3">
+        <v>8.07</v>
+      </c>
+      <c r="D3">
+        <v>11.42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>5.62</v>
+      </c>
+      <c r="C4">
+        <v>8.44</v>
+      </c>
+      <c r="D4">
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>6.18</v>
+      </c>
+      <c r="C5">
+        <v>9.01</v>
+      </c>
+      <c r="D5">
+        <v>13.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>6.55</v>
+      </c>
+      <c r="C6">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D6">
+        <v>14.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>6.74</v>
+      </c>
+      <c r="C7">
+        <v>9.94</v>
+      </c>
+      <c r="D7">
+        <v>16.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>7.12</v>
+      </c>
+      <c r="C8">
+        <v>10.32</v>
+      </c>
+      <c r="D8">
+        <v>16.670000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>7.3</v>
+      </c>
+      <c r="C9">
+        <v>10.69</v>
+      </c>
+      <c r="D9">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>7.49</v>
+      </c>
+      <c r="C10">
+        <v>11.26</v>
+      </c>
+      <c r="D10">
+        <v>18.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>7.68</v>
+      </c>
+      <c r="C11">
+        <v>11.63</v>
+      </c>
+      <c r="D11">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>9.36</v>
+      </c>
+      <c r="C12">
+        <v>14.26</v>
+      </c>
+      <c r="D12">
+        <v>24.53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>10.86</v>
+      </c>
+      <c r="C13">
+        <v>16.14</v>
+      </c>
+      <c r="D13">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>12.17</v>
+      </c>
+      <c r="C14">
+        <v>17.82</v>
+      </c>
+      <c r="D14">
+        <v>31.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>13.3</v>
+      </c>
+      <c r="C15">
+        <v>19.14</v>
+      </c>
+      <c r="D15">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>14.23</v>
+      </c>
+      <c r="C16">
+        <v>20.260000000000002</v>
+      </c>
+      <c r="D16">
+        <v>35.58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>14.79</v>
+      </c>
+      <c r="C17">
+        <v>21.39</v>
+      </c>
+      <c r="D17">
+        <v>37.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>15.54</v>
+      </c>
+      <c r="C18">
+        <v>22.33</v>
+      </c>
+      <c r="D18">
+        <v>39.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>16.29</v>
+      </c>
+      <c r="C19">
+        <v>23.26</v>
+      </c>
+      <c r="D19">
+        <v>40.64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="C20">
+        <v>24.2</v>
+      </c>
+      <c r="D20">
+        <v>41.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>20.97</v>
+      </c>
+      <c r="C21">
+        <v>29.83</v>
+      </c>
+      <c r="D21">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>23.97</v>
+      </c>
+      <c r="C22">
+        <v>33.96</v>
+      </c>
+      <c r="D22">
+        <v>56.93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>26.4</v>
+      </c>
+      <c r="C23">
+        <v>37.520000000000003</v>
+      </c>
+      <c r="D23">
+        <v>61.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>28.28</v>
+      </c>
+      <c r="C24">
+        <v>40.71</v>
+      </c>
+      <c r="D24">
+        <v>65.17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>30.34</v>
+      </c>
+      <c r="C25">
+        <v>43.71</v>
+      </c>
+      <c r="D25">
+        <v>68.349999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>31.84</v>
+      </c>
+      <c r="C26">
+        <v>46.72</v>
+      </c>
+      <c r="D26">
+        <v>71.540000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>33.33</v>
+      </c>
+      <c r="C27">
+        <v>49.53</v>
+      </c>
+      <c r="D27">
+        <v>74.16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>34.64</v>
+      </c>
+      <c r="C28">
+        <v>52.53</v>
+      </c>
+      <c r="D28">
+        <v>76.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>35.770000000000003</v>
+      </c>
+      <c r="C29">
+        <v>55.35</v>
+      </c>
+      <c r="D29">
+        <v>78.459999999999994</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14C864E-66FB-4228-9AA0-0F63BE0CFB6A}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>5.8</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>7.6</v>
+      </c>
+      <c r="D3">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>4.2</v>
+      </c>
+      <c r="C4">
+        <v>9.6</v>
+      </c>
+      <c r="D4">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>11.4</v>
+      </c>
+      <c r="D5">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>6.8</v>
+      </c>
+      <c r="C7">
+        <v>14.2</v>
+      </c>
+      <c r="D7">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>7.4</v>
+      </c>
+      <c r="C8">
+        <v>15.6</v>
+      </c>
+      <c r="D8">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C9">
+        <v>16.8</v>
+      </c>
+      <c r="D9">
+        <v>30.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>8.6</v>
+      </c>
+      <c r="C10">
+        <v>17.8</v>
+      </c>
+      <c r="D10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="C11">
+        <v>18.8</v>
+      </c>
+      <c r="D11">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>25.6</v>
+      </c>
+      <c r="D12">
+        <v>41.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>17.2</v>
+      </c>
+      <c r="C13">
+        <v>30.4</v>
+      </c>
+      <c r="D13">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="C14">
+        <v>34.4</v>
+      </c>
+      <c r="D14">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>21.8</v>
+      </c>
+      <c r="C15">
+        <v>37.4</v>
+      </c>
+      <c r="D15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>23.6</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>25.6</v>
+      </c>
+      <c r="C17">
+        <v>42.4</v>
+      </c>
+      <c r="D17">
+        <v>60.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>26.6</v>
+      </c>
+      <c r="C18">
+        <v>44.8</v>
+      </c>
+      <c r="D18">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>46.6</v>
+      </c>
+      <c r="D19">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>29.2</v>
+      </c>
+      <c r="C20">
+        <v>48.4</v>
+      </c>
+      <c r="D20">
+        <v>67.400000000000006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="C21">
+        <v>60.8</v>
+      </c>
+      <c r="D21">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="D22">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>76.8</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>54</v>
+      </c>
+      <c r="C24">
+        <v>82.8</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>58.2</v>
+      </c>
+      <c r="C25">
+        <v>88</v>
+      </c>
+      <c r="D25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>62</v>
+      </c>
+      <c r="C26">
+        <v>93.8</v>
+      </c>
+      <c r="D26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="C27">
+        <v>100</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>69</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>72</v>
+      </c>
+      <c r="C29">
+        <v>100</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79E7E021-2638-47D1-B5DF-2338E308BB89}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,4 +6825,1688 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E710B46E-AA74-4E90-95CD-03894917E17D}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5.22</v>
+      </c>
+      <c r="D2">
+        <v>11.94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0.75</v>
+      </c>
+      <c r="C3">
+        <v>6.53</v>
+      </c>
+      <c r="D3">
+        <v>15.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="C4">
+        <v>7.65</v>
+      </c>
+      <c r="D4">
+        <v>17.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>1.5</v>
+      </c>
+      <c r="C5">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="D5">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>2.44</v>
+      </c>
+      <c r="C6">
+        <v>10.07</v>
+      </c>
+      <c r="D6">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>11.38</v>
+      </c>
+      <c r="D7">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>3.94</v>
+      </c>
+      <c r="C8">
+        <v>12.5</v>
+      </c>
+      <c r="D8">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="C9">
+        <v>13.43</v>
+      </c>
+      <c r="D9">
+        <v>24.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>5.44</v>
+      </c>
+      <c r="C10">
+        <v>14.37</v>
+      </c>
+      <c r="D10">
+        <v>24.81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>15.3</v>
+      </c>
+      <c r="D11">
+        <v>25.93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>11.26</v>
+      </c>
+      <c r="C12">
+        <v>21.83</v>
+      </c>
+      <c r="D12">
+        <v>32.28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>14.82</v>
+      </c>
+      <c r="C13">
+        <v>25.93</v>
+      </c>
+      <c r="D13">
+        <v>36.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>17.45</v>
+      </c>
+      <c r="C14">
+        <v>29.1</v>
+      </c>
+      <c r="D14">
+        <v>39.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="C15">
+        <v>31.9</v>
+      </c>
+      <c r="D15">
+        <v>42.72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>21.58</v>
+      </c>
+      <c r="C16">
+        <v>34.14</v>
+      </c>
+      <c r="D16">
+        <v>45.34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>23.45</v>
+      </c>
+      <c r="C17">
+        <v>36.01</v>
+      </c>
+      <c r="D17">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>24.95</v>
+      </c>
+      <c r="C18">
+        <v>37.69</v>
+      </c>
+      <c r="D18">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>9</v>
+      </c>
+      <c r="B19">
+        <v>26.08</v>
+      </c>
+      <c r="C19">
+        <v>39.18</v>
+      </c>
+      <c r="D19">
+        <v>50.19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>27.39</v>
+      </c>
+      <c r="C20">
+        <v>40.49</v>
+      </c>
+      <c r="D20">
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>36.21</v>
+      </c>
+      <c r="C21">
+        <v>50.56</v>
+      </c>
+      <c r="D21">
+        <v>62.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>41.84</v>
+      </c>
+      <c r="C22">
+        <v>58.02</v>
+      </c>
+      <c r="D22">
+        <v>70.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>45.78</v>
+      </c>
+      <c r="C23">
+        <v>63.25</v>
+      </c>
+      <c r="D23">
+        <v>75.19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24">
+        <v>49.53</v>
+      </c>
+      <c r="C24">
+        <v>67.91</v>
+      </c>
+      <c r="D24">
+        <v>80.41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>52.72</v>
+      </c>
+      <c r="C25">
+        <v>71.64</v>
+      </c>
+      <c r="D25">
+        <v>84.51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>70</v>
+      </c>
+      <c r="B26">
+        <v>55.72</v>
+      </c>
+      <c r="C26">
+        <v>75.56</v>
+      </c>
+      <c r="D26">
+        <v>88.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>80</v>
+      </c>
+      <c r="B27">
+        <v>58.16</v>
+      </c>
+      <c r="C27">
+        <v>78.73</v>
+      </c>
+      <c r="D27">
+        <v>91.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>60.41</v>
+      </c>
+      <c r="C28">
+        <v>81.53</v>
+      </c>
+      <c r="D28">
+        <v>94.59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>100</v>
+      </c>
+      <c r="B29">
+        <v>62.48</v>
+      </c>
+      <c r="C29">
+        <v>84.51</v>
+      </c>
+      <c r="D29">
+        <v>96.64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF83AF0B-DE12-4716-B1CB-C5D0648D0827}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.74</v>
+      </c>
+      <c r="D3" s="10">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1.29</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.02</v>
+      </c>
+      <c r="D5" s="10">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>2.76</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.76</v>
+      </c>
+      <c r="D6" s="10">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>3.31</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3.31</v>
+      </c>
+      <c r="D7" s="10">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.04</v>
+      </c>
+      <c r="C8" s="10">
+        <v>4.04</v>
+      </c>
+      <c r="D8" s="10">
+        <v>4.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.78</v>
+      </c>
+      <c r="C9" s="10">
+        <v>4.78</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>5.15</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.15</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.7</v>
+      </c>
+      <c r="D11" s="10">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="C12" s="10">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="D12" s="10">
+        <v>9.3800000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="C13" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="D13" s="10">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="C14" s="10">
+        <v>13.6</v>
+      </c>
+      <c r="D14" s="10">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>15.63</v>
+      </c>
+      <c r="C15" s="10">
+        <v>15.63</v>
+      </c>
+      <c r="D15" s="10">
+        <v>15.63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="C16" s="10">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="D16" s="10">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="C17" s="10">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="D17" s="10">
+        <v>19.670000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>21.51</v>
+      </c>
+      <c r="C18" s="10">
+        <v>21.51</v>
+      </c>
+      <c r="D18" s="10">
+        <v>21.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>23.35</v>
+      </c>
+      <c r="C19" s="10">
+        <v>23.35</v>
+      </c>
+      <c r="D19" s="10">
+        <v>23.35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>25.37</v>
+      </c>
+      <c r="C20" s="10">
+        <v>25.37</v>
+      </c>
+      <c r="D20" s="10">
+        <v>25.37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>34.93</v>
+      </c>
+      <c r="C21" s="10">
+        <v>34.93</v>
+      </c>
+      <c r="D21" s="10">
+        <v>34.93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>37.68</v>
+      </c>
+      <c r="C22" s="10">
+        <v>37.68</v>
+      </c>
+      <c r="D22" s="10">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="C23" s="10">
+        <v>39.340000000000003</v>
+      </c>
+      <c r="D23" s="10">
+        <v>39.340000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>40.26</v>
+      </c>
+      <c r="C24" s="10">
+        <v>40.26</v>
+      </c>
+      <c r="D24" s="10">
+        <v>40.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>40.81</v>
+      </c>
+      <c r="C25" s="10">
+        <v>40.81</v>
+      </c>
+      <c r="D25" s="10">
+        <v>40.81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>41.18</v>
+      </c>
+      <c r="C26" s="10">
+        <v>41.18</v>
+      </c>
+      <c r="D26" s="10">
+        <v>41.18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>41.36</v>
+      </c>
+      <c r="C27" s="10">
+        <v>41.36</v>
+      </c>
+      <c r="D27" s="10">
+        <v>41.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>41.54</v>
+      </c>
+      <c r="C28" s="10">
+        <v>41.54</v>
+      </c>
+      <c r="D28" s="10">
+        <v>41.54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>41.54</v>
+      </c>
+      <c r="C29" s="10">
+        <v>41.54</v>
+      </c>
+      <c r="D29" s="10">
+        <v>41.54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31542A63-3380-4B59-8837-866D1B661955}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.34</v>
+      </c>
+      <c r="D3" s="10">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.48</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.44</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4.2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>8.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="C7" s="10">
+        <v>5.34</v>
+      </c>
+      <c r="D7" s="10">
+        <v>9.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1.53</v>
+      </c>
+      <c r="C8" s="10">
+        <v>6.11</v>
+      </c>
+      <c r="D8" s="10">
+        <v>11.45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7.06</v>
+      </c>
+      <c r="D9" s="10">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2.29</v>
+      </c>
+      <c r="C10" s="10">
+        <v>7.82</v>
+      </c>
+      <c r="D10" s="10">
+        <v>13.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>2.86</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="D11" s="10">
+        <v>15.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>5.73</v>
+      </c>
+      <c r="C12" s="10">
+        <v>16.03</v>
+      </c>
+      <c r="D12" s="10">
+        <v>25.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>7.63</v>
+      </c>
+      <c r="C13" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="D13" s="10">
+        <v>31.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>9.16</v>
+      </c>
+      <c r="C14" s="10">
+        <v>25</v>
+      </c>
+      <c r="D14" s="10">
+        <v>36.450000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>10.69</v>
+      </c>
+      <c r="C15" s="10">
+        <v>28.44</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>12.02</v>
+      </c>
+      <c r="C16" s="10">
+        <v>30.73</v>
+      </c>
+      <c r="D16" s="10">
+        <v>44.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>12.98</v>
+      </c>
+      <c r="C17" s="10">
+        <v>33.21</v>
+      </c>
+      <c r="D17" s="10">
+        <v>47.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>13.93</v>
+      </c>
+      <c r="C18" s="10">
+        <v>35.11</v>
+      </c>
+      <c r="D18" s="10">
+        <v>50.57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>14.89</v>
+      </c>
+      <c r="C19" s="10">
+        <v>36.64</v>
+      </c>
+      <c r="D19" s="10">
+        <v>52.67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>15.84</v>
+      </c>
+      <c r="C20" s="10">
+        <v>38.36</v>
+      </c>
+      <c r="D20" s="10">
+        <v>54.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>21.56</v>
+      </c>
+      <c r="C21" s="10">
+        <v>47.33</v>
+      </c>
+      <c r="D21" s="10">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>24.81</v>
+      </c>
+      <c r="C22" s="10">
+        <v>52.29</v>
+      </c>
+      <c r="D22" s="10">
+        <v>75.760000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>27.29</v>
+      </c>
+      <c r="C23" s="10">
+        <v>54.96</v>
+      </c>
+      <c r="D23" s="10">
+        <v>80.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>29.2</v>
+      </c>
+      <c r="C24" s="10">
+        <v>57.06</v>
+      </c>
+      <c r="D24" s="10">
+        <v>83.97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>30.73</v>
+      </c>
+      <c r="C25" s="10">
+        <v>58.78</v>
+      </c>
+      <c r="D25" s="10">
+        <v>86.45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>32.06</v>
+      </c>
+      <c r="C26" s="10">
+        <v>60.31</v>
+      </c>
+      <c r="D26" s="10">
+        <v>88.93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>33.020000000000003</v>
+      </c>
+      <c r="C27" s="10">
+        <v>61.45</v>
+      </c>
+      <c r="D27" s="10">
+        <v>90.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>33.97</v>
+      </c>
+      <c r="C28" s="10">
+        <v>62.21</v>
+      </c>
+      <c r="D28" s="10">
+        <v>91.79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>34.54</v>
+      </c>
+      <c r="C29" s="10">
+        <v>63.17</v>
+      </c>
+      <c r="D29" s="10">
+        <v>92.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE15445-A153-45C0-86A1-BCCDA1FFC174}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2.67</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.81</v>
+      </c>
+      <c r="D2" s="10">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>2.48</v>
+      </c>
+      <c r="C3" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="D3" s="10">
+        <v>9.7100000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>2.86</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="D4" s="10">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>3.24</v>
+      </c>
+      <c r="C5" s="10">
+        <v>7.05</v>
+      </c>
+      <c r="D5" s="10">
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>3.81</v>
+      </c>
+      <c r="C6" s="10">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10">
+        <v>14.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8.76</v>
+      </c>
+      <c r="D7" s="10">
+        <v>15.81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>4.38</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9.52</v>
+      </c>
+      <c r="D8" s="10">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>4.76</v>
+      </c>
+      <c r="C9" s="10">
+        <v>10.29</v>
+      </c>
+      <c r="D9" s="10">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>4.95</v>
+      </c>
+      <c r="C10" s="10">
+        <v>10.86</v>
+      </c>
+      <c r="D10" s="10">
+        <v>18.86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11" s="10">
+        <v>5.33</v>
+      </c>
+      <c r="C11" s="10">
+        <v>11.24</v>
+      </c>
+      <c r="D11" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>16.38</v>
+      </c>
+      <c r="D12" s="10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>3</v>
+      </c>
+      <c r="B13" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="D13" s="10">
+        <v>32.950000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>4</v>
+      </c>
+      <c r="B14" s="10">
+        <v>12.57</v>
+      </c>
+      <c r="C14" s="10">
+        <v>22.67</v>
+      </c>
+      <c r="D14" s="10">
+        <v>37.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>5</v>
+      </c>
+      <c r="B15" s="10">
+        <v>14.48</v>
+      </c>
+      <c r="C15" s="10">
+        <v>25.14</v>
+      </c>
+      <c r="D15" s="10">
+        <v>40.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>6</v>
+      </c>
+      <c r="B16" s="10">
+        <v>16.760000000000002</v>
+      </c>
+      <c r="C16" s="10">
+        <v>27.62</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10">
+        <v>18.86</v>
+      </c>
+      <c r="C17" s="10">
+        <v>29.71</v>
+      </c>
+      <c r="D17" s="10">
+        <v>46.86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10">
+        <v>20.57</v>
+      </c>
+      <c r="C18" s="10">
+        <v>32.380000000000003</v>
+      </c>
+      <c r="D18" s="10">
+        <v>49.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9">
+        <v>9</v>
+      </c>
+      <c r="B19" s="10">
+        <v>22.48</v>
+      </c>
+      <c r="C19" s="10">
+        <v>34.479999999999997</v>
+      </c>
+      <c r="D19" s="10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
+        <v>10</v>
+      </c>
+      <c r="B20" s="10">
+        <v>23.81</v>
+      </c>
+      <c r="C20" s="10">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="D20" s="10">
+        <v>53.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <v>33.71</v>
+      </c>
+      <c r="C21" s="10">
+        <v>49.9</v>
+      </c>
+      <c r="D21" s="10">
+        <v>69.33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10">
+        <v>38.67</v>
+      </c>
+      <c r="C22" s="10">
+        <v>57.14</v>
+      </c>
+      <c r="D22" s="10">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>40</v>
+      </c>
+      <c r="B23" s="10">
+        <v>41.71</v>
+      </c>
+      <c r="C23" s="10">
+        <v>61.33</v>
+      </c>
+      <c r="D23" s="10">
+        <v>83.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
+        <v>50</v>
+      </c>
+      <c r="B24" s="10">
+        <v>44.38</v>
+      </c>
+      <c r="C24" s="10">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="D24" s="10">
+        <v>87.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9">
+        <v>60</v>
+      </c>
+      <c r="B25" s="10">
+        <v>46.48</v>
+      </c>
+      <c r="C25" s="10">
+        <v>66.86</v>
+      </c>
+      <c r="D25" s="10">
+        <v>90.67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10">
+        <v>68.95</v>
+      </c>
+      <c r="D26" s="10">
+        <v>93.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>49.33</v>
+      </c>
+      <c r="C27" s="10">
+        <v>70.86</v>
+      </c>
+      <c r="D27" s="10">
+        <v>95.43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
+        <v>90</v>
+      </c>
+      <c r="B28" s="10">
+        <v>50.29</v>
+      </c>
+      <c r="C28" s="10">
+        <v>72</v>
+      </c>
+      <c r="D28" s="10">
+        <v>96.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9">
+        <v>100</v>
+      </c>
+      <c r="B29" s="10">
+        <v>51.05</v>
+      </c>
+      <c r="C29" s="10">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="D29" s="10">
+        <v>97.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PCI/Airfield_AC_Curve.xlsx
+++ b/PCI/Airfield_AC_Curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VS_PCI\PCI\PCI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD12EE14-02EF-4020-AC36-10153126DD56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79799C30-67CC-48BC-AD02-078A50BEA997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="16" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Alligator cracking" sheetId="3" r:id="rId1"/>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED90409E-9100-41B3-983A-D377F2118842}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2349783-1006-4200-9A90-241EF2A7A8B8}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +1905,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3589,7 +3589,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4009,7 +4009,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CE120-9832-4917-91CF-544B85AD4B41}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
@@ -4430,8 +4430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08930E69-A74F-4814-A7FF-2E6532DAB3B7}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4851,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BB669D6-13CE-48AF-9671-EDF3021688CA}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5272,7 +5272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D451432-809F-4E8B-A090-427CA6D2220A}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
@@ -6115,7 +6115,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection sqref="A1:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7252,8 +7252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF83AF0B-DE12-4716-B1CB-C5D0648D0827}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
